--- a/build/website/StructureDefinition-mspatient.xlsx
+++ b/build/website/StructureDefinition-mspatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$78</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="560">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T09:36:20-05:00</t>
+    <t>2022-05-26T13:36:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rac-1:Shall use either NMDP Race extension or us-core-race {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-race') or (extension.exists(url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')) and extension.exists(url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}rac-1:Shall use either NMDP Race extension or us-core-race {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-race' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-race')}eth-1:Shall use either NMDP ethnicity extension or us-core-ethnicity {extension.exists(url = 'http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-ethnicity' or url = 'http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity')}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -486,6 +486,19 @@
   </si>
   <si>
     <t>Extension to use NMDP Race Codes</t>
+  </si>
+  <si>
+    <t>nmdpethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.nmdp.org/ig/matchsource/StructureDefinition/nmdp-ethnicity}
+</t>
+  </si>
+  <si>
+    <t>NMDP Ethnicity Code Extension</t>
+  </si>
+  <si>
+    <t>Extension to use NMDP Ethnicity Codes</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -2060,7 +2073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2070,7 +2083,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
@@ -3479,32 +3492,34 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>151</v>
@@ -3512,12 +3527,8 @@
       <c r="L13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3565,7 +3576,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3574,13 +3585,13 @@
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
@@ -3595,42 +3606,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3679,7 +3692,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3691,27 +3704,27 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3725,35 +3738,31 @@
         <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3797,13 +3806,13 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
@@ -3812,24 +3821,24 @@
         <v>96</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3837,39 +3846,41 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3913,13 +3924,13 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
@@ -3928,24 +3939,24 @@
         <v>96</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3953,31 +3964,35 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -4025,31 +4040,31 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
@@ -4080,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>189</v>
@@ -4088,9 +4103,7 @@
       <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -4127,34 +4140,34 @@
         <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -4171,43 +4184,41 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4231,46 +4242,46 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>77</v>
@@ -4279,7 +4290,7 @@
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4287,7 +4298,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4304,25 +4315,25 @@
         <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4347,13 +4358,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4371,7 +4382,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4386,7 +4397,7 @@
         <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>77</v>
@@ -4395,29 +4406,29 @@
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4429,15 +4440,17 @@
         <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4485,7 +4498,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4500,7 +4513,7 @@
         <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>77</v>
@@ -4509,7 +4522,7 @@
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4517,18 +4530,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>85</v>
@@ -4543,13 +4556,13 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4599,13 +4612,13 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
@@ -4614,7 +4627,7 @@
         <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -4623,29 +4636,29 @@
         <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4657,12 +4670,14 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4711,7 +4726,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4726,7 +4741,7 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4735,7 +4750,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4743,7 +4758,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4769,10 +4784,10 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4823,7 +4838,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4838,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4847,7 +4862,7 @@
         <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4855,7 +4870,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4866,7 +4881,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4878,18 +4893,16 @@
         <v>85</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4937,13 +4950,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4952,7 +4965,7 @@
         <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>77</v>
@@ -4961,15 +4974,15 @@
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4983,7 +4996,7 @@
         <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4992,19 +5005,17 @@
         <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5053,13 +5064,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -5068,24 +5079,24 @@
         <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5099,25 +5110,29 @@
         <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5165,31 +5180,31 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5197,18 +5212,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5220,7 +5235,7 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>189</v>
@@ -5228,9 +5243,7 @@
       <c r="L28" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5267,34 +5280,34 @@
         <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
@@ -5309,40 +5322,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5352,7 +5367,7 @@
         <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -5367,46 +5382,46 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5415,7 +5430,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5423,7 +5438,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5446,20 +5461,16 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5468,7 +5479,7 @@
         <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5483,13 +5494,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5518,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5516,13 +5527,13 @@
         <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5531,15 +5542,15 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5547,34 +5558,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5599,13 +5610,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5623,7 +5634,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5638,7 +5649,7 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5647,7 +5658,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5655,7 +5666,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5672,24 +5683,26 @@
         <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5713,13 +5726,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5737,7 +5750,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5752,7 +5765,7 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5761,7 +5774,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5769,7 +5782,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5792,15 +5805,17 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5864,7 +5879,7 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5873,13 +5888,13 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>296</v>
       </c>
@@ -5889,13 +5904,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5904,7 +5919,7 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>297</v>
@@ -5912,12 +5927,8 @@
       <c r="L34" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5941,13 +5952,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5965,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5980,16 +5991,16 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>127</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5997,7 +6008,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6020,19 +6031,19 @@
         <v>85</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>307</v>
+        <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -6057,13 +6068,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -6081,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -6096,24 +6107,24 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6121,34 +6132,34 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6197,7 +6208,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6212,24 +6223,24 @@
         <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6237,34 +6248,34 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6313,13 +6324,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6328,24 +6339,24 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6353,31 +6364,35 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6425,31 +6440,31 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6457,18 +6472,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6480,7 +6495,7 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>189</v>
@@ -6488,9 +6503,7 @@
       <c r="L39" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6527,34 +6540,34 @@
         <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6571,43 +6584,41 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>194</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6619,7 +6630,7 @@
         <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>77</v>
@@ -6631,46 +6642,46 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>343</v>
+        <v>196</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6679,7 +6690,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6687,7 +6698,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6704,7 +6715,7 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>85</v>
@@ -6713,15 +6724,17 @@
         <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6733,7 +6746,7 @@
         <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>77</v>
@@ -6745,13 +6758,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6782,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6784,7 +6797,7 @@
         <v>96</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6793,7 +6806,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6801,7 +6814,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6824,20 +6837,18 @@
         <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6849,7 +6860,7 @@
         <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>77</v>
@@ -6861,13 +6872,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6885,7 +6896,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6900,7 +6911,7 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6909,15 +6920,15 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6925,13 +6936,13 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6943,13 +6954,17 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6961,7 +6976,7 @@
         <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>77</v>
@@ -6997,13 +7012,13 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
@@ -7012,7 +7027,7 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>366</v>
+        <v>214</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -7021,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -7029,18 +7044,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>84</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>85</v>
@@ -7055,10 +7070,10 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7073,7 +7088,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -7109,13 +7124,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -7124,7 +7139,7 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -7133,29 +7148,29 @@
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -7167,14 +7182,12 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7187,7 +7200,7 @@
         <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>77</v>
@@ -7223,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7238,7 +7251,7 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7247,29 +7260,29 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7281,12 +7294,14 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7299,7 +7314,7 @@
         <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>77</v>
@@ -7335,7 +7350,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7350,7 +7365,7 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7359,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7367,11 +7382,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7393,10 +7408,10 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7411,7 +7426,7 @@
         <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>77</v>
@@ -7447,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7462,7 +7477,7 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7471,7 +7486,7 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7479,11 +7494,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7505,14 +7520,12 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7525,7 +7538,7 @@
         <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>400</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>77</v>
@@ -7561,7 +7574,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7576,7 +7589,7 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7585,15 +7598,15 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7601,13 +7614,13 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7616,18 +7629,18 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7639,7 +7652,7 @@
         <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>77</v>
@@ -7675,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7690,7 +7703,7 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>246</v>
+        <v>409</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7699,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7707,7 +7720,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7727,20 +7740,20 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>415</v>
+        <v>245</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7753,7 +7766,7 @@
         <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>77</v>
@@ -7765,13 +7778,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7789,7 +7802,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7804,16 +7817,16 @@
         <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7821,7 +7834,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7844,19 +7857,17 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7881,13 +7892,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>424</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7905,7 +7916,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7920,16 +7931,16 @@
         <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>173</v>
+        <v>427</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7937,7 +7948,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7948,7 +7959,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7960,19 +7971,19 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8021,13 +8032,13 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
@@ -8036,16 +8047,16 @@
         <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8053,7 +8064,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8076,19 +8087,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8137,7 +8148,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8149,19 +8160,19 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>447</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8169,7 +8180,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8180,7 +8191,7 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8192,16 +8203,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>185</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8249,25 +8264,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>187</v>
+        <v>445</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>173</v>
+        <v>452</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8281,18 +8296,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8304,7 +8319,7 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>189</v>
@@ -8312,9 +8327,7 @@
       <c r="L55" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8363,22 +8376,22 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8395,11 +8408,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>452</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8412,26 +8425,24 @@
         <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8479,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>455</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8494,7 +8505,7 @@
         <v>135</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8511,11 +8522,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8528,13 +8539,13 @@
         <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>457</v>
@@ -8542,9 +8553,11 @@
       <c r="L57" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>459</v>
+        <v>158</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8569,13 +8582,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>460</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>461</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8593,7 +8606,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8605,19 +8618,19 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>462</v>
+        <v>127</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8625,7 +8638,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8636,7 +8649,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
@@ -8648,17 +8661,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>176</v>
+        <v>419</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8683,13 +8696,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8707,13 +8720,13 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>77</v>
@@ -8722,16 +8735,16 @@
         <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>181</v>
+        <v>466</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8739,7 +8752,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8750,7 +8763,7 @@
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8762,19 +8775,17 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" s="2"/>
+      <c r="N59" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8823,13 +8834,13 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>77</v>
@@ -8838,16 +8849,16 @@
         <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8855,7 +8866,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8866,7 +8877,7 @@
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8878,17 +8889,19 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>477</v>
+        <v>257</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8937,13 +8950,13 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
@@ -8952,16 +8965,16 @@
         <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8969,7 +8982,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8992,10 +9005,10 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>104</v>
+        <v>329</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>297</v>
+        <v>479</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>480</v>
@@ -9027,13 +9040,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -9051,7 +9064,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -9066,10 +9079,10 @@
         <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9106,17 +9119,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -9141,13 +9154,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9174,22 +9187,22 @@
         <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>488</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>489</v>
+        <v>307</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9197,7 +9210,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9220,16 +9233,18 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>241</v>
+        <v>488</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9277,7 +9292,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9286,28 +9301,28 @@
         <v>84</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>492</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>495</v>
       </c>
@@ -9320,10 +9335,10 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9332,7 +9347,7 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>442</v>
+        <v>245</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>496</v>
@@ -9340,12 +9355,8 @@
       <c r="L64" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>499</v>
-      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9399,7 +9410,7 @@
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
@@ -9408,10 +9419,10 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>501</v>
+        <v>177</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9423,9 +9434,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9436,10 +9447,10 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9448,16 +9459,20 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>185</v>
+        <v>500</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9505,25 +9520,25 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>187</v>
+        <v>499</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>173</v>
+        <v>504</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9537,18 +9552,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9560,7 +9575,7 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>189</v>
@@ -9568,9 +9583,7 @@
       <c r="L66" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9619,22 +9632,22 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9651,11 +9664,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>452</v>
+        <v>154</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9668,26 +9681,24 @@
         <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9735,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>455</v>
+        <v>196</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9750,7 +9761,7 @@
         <v>135</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9767,42 +9778,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>415</v>
+        <v>129</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>506</v>
+        <v>457</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>507</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>508</v>
+        <v>157</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>509</v>
+        <v>158</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9827,13 +9838,13 @@
         <v>77</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9851,31 +9862,31 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>505</v>
+        <v>459</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>510</v>
+        <v>127</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>511</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>512</v>
+        <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9883,7 +9894,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9891,7 +9902,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>84</v>
@@ -9906,19 +9917,19 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>166</v>
+        <v>419</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9943,13 +9954,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -9967,10 +9978,10 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>84</v>
@@ -9982,28 +9993,28 @@
         <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>522</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -10013,7 +10024,7 @@
         <v>84</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10022,18 +10033,20 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>523</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>520</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
       </c>
@@ -10081,13 +10094,13 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
@@ -10096,16 +10109,16 @@
         <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>173</v>
+        <v>523</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10113,11 +10126,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>526</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10133,23 +10146,21 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10197,13 +10208,13 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10212,24 +10223,24 @@
         <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>535</v>
+        <v>177</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10240,31 +10251,31 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10313,13 +10324,13 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>77</v>
@@ -10328,10 +10339,10 @@
         <v>96</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>541</v>
+        <v>493</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10345,7 +10356,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10356,28 +10367,32 @@
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>185</v>
+        <v>541</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10425,25 +10440,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>187</v>
+        <v>540</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>173</v>
+        <v>545</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10457,18 +10472,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
@@ -10480,7 +10495,7 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>189</v>
@@ -10488,9 +10503,7 @@
       <c r="L74" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10539,22 +10552,22 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10571,11 +10584,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>452</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10588,26 +10601,24 @@
         <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10655,7 +10666,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>455</v>
+        <v>196</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -10670,7 +10681,7 @@
         <v>135</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10687,41 +10698,43 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>546</v>
+        <v>129</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>547</v>
+        <v>457</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10769,31 +10782,31 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>550</v>
+        <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10801,7 +10814,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10824,15 +10837,17 @@
         <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>104</v>
+        <v>550</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10857,13 +10872,13 @@
         <v>77</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>553</v>
+        <v>77</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>554</v>
+        <v>77</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>77</v>
@@ -10881,7 +10896,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>84</v>
@@ -10896,23 +10911,135 @@
         <v>96</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AK77" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN77">
+  <autoFilter ref="A1:AN78">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10922,7 +11049,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI77">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
